--- a/selenium/com.ChildWelfareAutomationSuite.POC/ApplicationTestData/AppData.xlsx
+++ b/selenium/com.ChildWelfareAutomationSuite.POC/ApplicationTestData/AppData.xlsx
@@ -16,24 +16,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Sravan.neppalli@cgi.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>admin@cgi.com</t>
+  </si>
+  <si>
+    <t>adminpw</t>
+  </si>
+  <si>
+    <t>AdminUsername</t>
+  </si>
+  <si>
+    <t>AdminPassword</t>
+  </si>
+  <si>
+    <t>StandardUser</t>
+  </si>
+  <si>
+    <t>StandardPassword</t>
+  </si>
+  <si>
+    <t>sravan.neppalli@cgi.com</t>
   </si>
   <si>
     <t>ddff444</t>
   </si>
   <si>
-    <t>ErrorMesg</t>
-  </si>
-  <si>
-    <t>SucessMesg</t>
+    <t>NonRegisterUser</t>
+  </si>
+  <si>
+    <t>venkat@cgi.com</t>
+  </si>
+  <si>
+    <t>InvalidPassword</t>
+  </si>
+  <si>
+    <t>venkat</t>
   </si>
 </sst>
 </file>
@@ -391,26 +409,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -418,18 +438,38 @@
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/selenium/com.ChildWelfareAutomationSuite.POC/ApplicationTestData/AppData.xlsx
+++ b/selenium/com.ChildWelfareAutomationSuite.POC/ApplicationTestData/AppData.xlsx
@@ -51,7 +51,7 @@
     <t>InvalidPassword</t>
   </si>
   <si>
-    <t>venkat</t>
+    <t>venkat1</t>
   </si>
 </sst>
 </file>

--- a/selenium/com.ChildWelfareAutomationSuite.POC/ApplicationTestData/AppData.xlsx
+++ b/selenium/com.ChildWelfareAutomationSuite.POC/ApplicationTestData/AppData.xlsx
@@ -51,7 +51,7 @@
     <t>InvalidPassword</t>
   </si>
   <si>
-    <t>venkat1</t>
+    <t>venkat</t>
   </si>
 </sst>
 </file>

--- a/selenium/com.ChildWelfareAutomationSuite.POC/ApplicationTestData/AppData.xlsx
+++ b/selenium/com.ChildWelfareAutomationSuite.POC/ApplicationTestData/AppData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_Login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>admin@cgi.com</t>
   </si>
@@ -52,6 +52,60 @@
   </si>
   <si>
     <t>venkat</t>
+  </si>
+  <si>
+    <t>Profile_FirstName</t>
+  </si>
+  <si>
+    <t>profile_LastName</t>
+  </si>
+  <si>
+    <t>profile_Email</t>
+  </si>
+  <si>
+    <t>profile_Password</t>
+  </si>
+  <si>
+    <t>profile_ConfirmPassword</t>
+  </si>
+  <si>
+    <t>profile_ZipCode</t>
+  </si>
+  <si>
+    <t>mareedu</t>
+  </si>
+  <si>
+    <t>dada@123</t>
+  </si>
+  <si>
+    <t>profile_PhNumber</t>
+  </si>
+  <si>
+    <t>1111111111</t>
+  </si>
+  <si>
+    <t>profile_inValidPhNumber</t>
+  </si>
+  <si>
+    <t>111111111</t>
+  </si>
+  <si>
+    <t>profile_inValidemail</t>
+  </si>
+  <si>
+    <t>venka</t>
+  </si>
+  <si>
+    <t>profile_inValidezip</t>
+  </si>
+  <si>
+    <t>7645</t>
+  </si>
+  <si>
+    <t>profile_InvalidPassword</t>
+  </si>
+  <si>
+    <t>dada@1234</t>
   </si>
 </sst>
 </file>
@@ -411,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,12 +531,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>76502</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="K2" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/selenium/com.ChildWelfareAutomationSuite.POC/ApplicationTestData/AppData.xlsx
+++ b/selenium/com.ChildWelfareAutomationSuite.POC/ApplicationTestData/AppData.xlsx
@@ -534,7 +534,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
